--- a/best_results_all.xlsx
+++ b/best_results_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeep\Downloads\Flakiness ML\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haha9\Documents\GitHub\quantum-flakiness-ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DC151690-66FA-49B7-A253-CE5F233C09F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5689DB7F-EBFA-4C15-8E7B-16416C7FF428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="3" xr2:uid="{BF8F3AD7-ED01-406B-AE2B-49C74F44DC6A}"/>
+    <workbookView xWindow="2745" yWindow="2055" windowWidth="20580" windowHeight="11340" firstSheet="1" activeTab="3" xr2:uid="{BF8F3AD7-ED01-406B-AE2B-49C74F44DC6A}"/>
   </bookViews>
   <sheets>
     <sheet name="best_results_equal_combo" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="114">
   <si>
     <t>Model</t>
   </si>
@@ -278,6 +278,93 @@
   </si>
   <si>
     <t>{'max_depth': 5.0, 'n_estimators': 200.0, 'learning_rate': 0.1}</t>
+  </si>
+  <si>
+    <t>Threhold</t>
+  </si>
+  <si>
+    <t>larger KNN</t>
+  </si>
+  <si>
+    <t>0.7777777777777778</t>
+  </si>
+  <si>
+    <t>0.8235294117647058</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 3, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 30, 'p': 2, 'threshold': 0.3, 'fold': 4}</t>
+  </si>
+  <si>
+    <t>larger SVM</t>
+  </si>
+  <si>
+    <t>0.9166666666666666</t>
+  </si>
+  <si>
+    <t>0.6666666666666666</t>
+  </si>
+  <si>
+    <t>0.7058823529411765</t>
+  </si>
+  <si>
+    <t>0.6590820436573076</t>
+  </si>
+  <si>
+    <t>{'C': 100.0, 'kernel': 'rbf', 'threshold': 0.2, 'fold': 4}</t>
+  </si>
+  <si>
+    <t>larger Naive Bayes</t>
+  </si>
+  <si>
+    <t>0.9833333333333332</t>
+  </si>
+  <si>
+    <t>0.9473684210526316</t>
+  </si>
+  <si>
+    <t>0.9393364366277244</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.001, 'threshold': 0.1, 'fold': 4}</t>
+  </si>
+  <si>
+    <t>larger XGBoost</t>
+  </si>
+  <si>
+    <t>0.9666666666666668</t>
+  </si>
+  <si>
+    <t>0.8888888888888888</t>
+  </si>
+  <si>
+    <t>0.8770580193070292</t>
+  </si>
+  <si>
+    <t>{'eta': 0.01, 'max_depth': 7.0, 'n_estimators': 100.0, 'threshold': 0.3, 'fold': 2}</t>
+  </si>
+  <si>
+    <t>larger Random Forest</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 100, 'criterion': 'entropy', 'max_depth': 10, 'min_samples_split': 5, 'min_samples_leaf': 1, 'threshold': 0.3, 'fold': 4}</t>
+  </si>
+  <si>
+    <t>larger Decision Tree</t>
+  </si>
+  <si>
+    <t>0.9333333333333332</t>
+  </si>
+  <si>
+    <t>0.5555555555555556</t>
+  </si>
+  <si>
+    <t>0.7142857142857143</t>
+  </si>
+  <si>
+    <t>0.7177405625652734</t>
+  </si>
+  <si>
+    <t>{'criterion': 'gini', 'max_depth': 10.0, 'min_samples_split': 2, 'min_samples_leaf': 1, 'max_features': 'sqrt', 'threshold': 0.1, 'fold': 3}</t>
   </si>
 </sst>
 </file>
@@ -889,68 +976,57 @@
     <xf numFmtId="0" fontId="16" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -964,9 +1040,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1004,7 +1080,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1110,7 +1186,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1252,7 +1328,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1266,9 +1342,9 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1320,7 +1396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1346,7 +1422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1372,7 +1448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1398,7 +1474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1424,7 +1500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1450,7 +1526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1476,7 +1552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1502,7 +1578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1528,7 +1604,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1554,7 +1630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1580,7 +1656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1619,9 +1695,9 @@
       <selection sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1673,7 +1749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1699,7 +1775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1725,7 +1801,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1751,7 +1827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1777,7 +1853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1803,7 +1879,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1829,7 +1905,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1855,7 +1931,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1881,7 +1957,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1907,7 +1983,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1933,7 +2009,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1972,9 +2048,9 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2000,7 +2076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2026,7 +2102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2052,7 +2128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2078,7 +2154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2104,7 +2180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2130,7 +2206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2156,7 +2232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2182,7 +2258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2208,7 +2284,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2234,7 +2310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2260,7 +2336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2286,7 +2362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2319,25 +2395,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3AB32B-72C1-49CB-A0F0-024DD36A8710}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="124.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="124.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>50</v>
       </c>
@@ -2350,11 +2426,11 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2376,7 +2452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -2403,7 +2479,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
@@ -2430,7 +2506,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
@@ -2457,7 +2533,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>13</v>
       </c>
@@ -2484,7 +2560,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
@@ -2511,7 +2587,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>15</v>
       </c>
@@ -2538,7 +2614,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>18</v>
       </c>
@@ -2565,7 +2641,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>18</v>
       </c>
@@ -2592,7 +2668,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>19</v>
       </c>
@@ -2619,7 +2695,7 @@
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -2646,7 +2722,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>22</v>
       </c>
@@ -2673,7 +2749,7 @@
       </c>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>22</v>
       </c>
@@ -2700,7 +2776,7 @@
       </c>
       <c r="I14" s="8"/>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>51</v>
       </c>
@@ -2713,11 +2789,11 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2739,7 +2815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>8</v>
       </c>
@@ -2766,7 +2842,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>8</v>
       </c>
@@ -2793,7 +2869,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>13</v>
       </c>
@@ -2820,7 +2896,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>13</v>
       </c>
@@ -2847,7 +2923,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>15</v>
       </c>
@@ -2874,7 +2950,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>15</v>
       </c>
@@ -2901,7 +2977,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>18</v>
       </c>
@@ -2928,7 +3004,7 @@
       </c>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>18</v>
       </c>
@@ -2955,7 +3031,7 @@
       </c>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>19</v>
       </c>
@@ -2982,7 +3058,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>19</v>
       </c>
@@ -3009,7 +3085,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>22</v>
       </c>
@@ -3036,7 +3112,7 @@
       </c>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>22</v>
       </c>
@@ -3063,7 +3139,7 @@
       </c>
       <c r="I29" s="8"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>52</v>
       </c>
@@ -3076,11 +3152,11 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="26" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -3102,7 +3178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>8</v>
       </c>
@@ -3129,7 +3205,7 @@
       </c>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>8</v>
       </c>
@@ -3156,7 +3232,7 @@
       </c>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>13</v>
       </c>
@@ -3183,7 +3259,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>13</v>
       </c>
@@ -3210,7 +3286,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>15</v>
       </c>
@@ -3237,34 +3313,34 @@
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="27" t="s">
+    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="27">
         <v>0.90683168316831597</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="27">
         <v>0.74023199023199004</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="27">
         <v>0.61805555555555503</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="27">
         <v>0.67241379310344795</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="27">
         <v>0.62298242038931595</v>
       </c>
-      <c r="H38" s="28" t="s">
+      <c r="H38" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="28"/>
-    </row>
-    <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>18</v>
       </c>
@@ -3290,7 +3366,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>18</v>
       </c>
@@ -3316,34 +3392,34 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="29" t="s">
+    <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="29">
         <v>0.95032786885245901</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="29">
         <v>0.86055555555555496</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="29">
         <v>0.81111111111111101</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="29">
         <v>0.83254213966288204</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="29">
         <v>0.80573163965026695</v>
       </c>
-      <c r="H41" s="30" t="s">
+      <c r="H41" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="30"/>
-    </row>
-    <row r="42" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>19</v>
       </c>
@@ -3370,7 +3446,7 @@
       </c>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>22</v>
       </c>
@@ -3397,7 +3473,7 @@
       </c>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>22</v>
       </c>
@@ -3423,6 +3499,167 @@
         <v>80</v>
       </c>
       <c r="I44" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47">
+        <v>0.95</v>
+      </c>
+      <c r="D47">
+        <v>0.875</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47">
+        <v>0.79639080275258001</v>
+      </c>
+      <c r="H47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48">
+        <v>0.75</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49">
+        <v>0.9</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0.8</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51">
+        <v>0.86928104575163401</v>
+      </c>
+      <c r="H51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
